--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/COLORADO_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/COLORADO_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1295"/>
+  <dimension ref="A1:D1289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C38">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C59">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C67">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C98">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C109">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C112">
@@ -2141,7 +2141,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C135">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C136">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C137">
@@ -2271,7 +2271,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C145">
@@ -2510,7 +2510,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C163">
@@ -2697,7 +2697,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C177">
@@ -2723,7 +2723,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2780,7 +2780,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C197">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C211">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C215">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C222">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C223">
@@ -3318,7 +3318,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C224">
@@ -3331,7 +3331,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C225">
@@ -3455,18 +3455,18 @@
         <v>1555</v>
       </c>
       <c r="D234">
-        <v>0.09287463417547631</v>
+        <v>0.09287463417547633</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C235">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C239">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C244">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C252">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C256">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C259">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C268">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C277">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C278">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C288">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C297">
@@ -4337,7 +4337,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C302">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C304">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C315">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C316">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C317">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C324">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C328">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C336">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C340">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C342">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C344">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C346">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C348">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C352">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C360">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C370">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C376">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C381">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C387">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C388">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C393">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C396">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C408">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C410">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C413">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C416">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C417">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C431">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C437">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C441">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C444">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C448">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C449">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C453">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C458">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C464">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C469">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C470">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C474">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C479">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C482">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C484">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C490">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C497">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C506">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C512">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C514">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C523">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C528">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C533">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C534">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C538">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C541">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C542">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C547">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C551">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C558">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C560">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C565">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C569">
@@ -8119,7 +8119,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C591">
@@ -8145,7 +8145,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C593">
@@ -8912,7 +8912,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C652">
@@ -9229,7 +9229,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C676">
@@ -9307,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C682">
@@ -9359,7 +9359,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C686">
@@ -9424,7 +9424,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C691">
@@ -9502,7 +9502,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C697">
@@ -9559,7 +9559,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C701">
@@ -9598,7 +9598,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C704">
@@ -9689,7 +9689,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C711">
@@ -9850,7 +9850,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C723">
@@ -9915,7 +9915,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C728">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C731">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C734">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C736">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C738">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C739">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C742">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C745">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C747">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C753">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C755">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C759">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C761">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C780">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C822">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C831">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C832">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C834">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C837">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C839">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C854">
@@ -11680,7 +11680,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C863">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C865">
@@ -11719,7 +11719,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C866">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C872">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C876">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C883">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C886">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C897">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C899">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C900">
@@ -12200,7 +12200,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C903">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C910">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C914">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C916">
@@ -12382,7 +12382,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C917">
@@ -12421,7 +12421,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C920">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C941">
@@ -12725,7 +12725,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C943">
@@ -12803,7 +12803,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C949">
@@ -12816,7 +12816,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C950">
@@ -12855,7 +12855,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C953">
@@ -12894,7 +12894,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C956">
@@ -13164,7 +13164,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C976">
@@ -13229,7 +13229,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C981">
@@ -13294,7 +13294,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C986">
@@ -13398,7 +13398,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C994">
@@ -13411,7 +13411,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C995">
@@ -13424,7 +13424,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C996">
@@ -13437,7 +13437,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C997">
@@ -13993,7 +13993,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1039">
@@ -14097,7 +14097,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1047">
@@ -14536,7 +14536,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1080">
@@ -14658,7 +14658,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1089">
@@ -14723,7 +14723,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1094">
@@ -14762,7 +14762,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1097">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1115">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1121">
@@ -15144,7 +15144,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1126">
@@ -15261,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1135">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1147">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1148">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1155">
@@ -15547,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1157">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1161">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1163">
@@ -15677,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1167">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1175">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1178">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1179">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1183">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1189">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1192">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1213">
@@ -16701,7 +16701,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1245">
@@ -16727,7 +16727,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1247">
@@ -16857,7 +16857,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1257">
@@ -16935,7 +16935,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1263">
@@ -16987,7 +16987,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1267">
@@ -17000,7 +17000,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1268">
@@ -17143,7 +17143,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1279">
@@ -17156,7 +17156,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1280">
@@ -17182,7 +17182,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1282">
@@ -17281,41 +17281,6 @@
       </c>
       <c r="D1289">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
